--- a/tests/test_contabilidad_electronica/ref/simple/CACX7605101P8202402BN.xlsx
+++ b/tests/test_contabilidad_electronica/ref/simple/CACX7605101P8202402BN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>NumCta</t>
   </si>
@@ -41,6 +41,45 @@
   </si>
   <si>
     <t>CodDesc</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Bancos</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Bancos</t>
+  </si>
+  <si>
+    <t>1020.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Bancos Nacionales</t>
+  </si>
+  <si>
+    <t>102.01</t>
+  </si>
+  <si>
+    <t>Bancos nacionales</t>
+  </si>
+  <si>
+    <t>1020.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Bancos Extranjeros</t>
+  </si>
+  <si>
+    <t>102.02</t>
+  </si>
+  <si>
+    <t>Bancos extranjeros</t>
   </si>
 </sst>
 </file>
@@ -93,9 +132,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,6 +477,93 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/test_contabilidad_electronica/ref/simple/CACX7605101P8202402BN.xlsx
+++ b/tests/test_contabilidad_electronica/ref/simple/CACX7605101P8202402BN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>NumCta</t>
   </si>
@@ -43,15 +43,27 @@
     <t>CodDesc</t>
   </si>
   <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Activos</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
     <t>1020</t>
   </si>
   <si>
     <t xml:space="preserve">    Bancos</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>102</t>
   </si>
   <si>
@@ -61,7 +73,7 @@
     <t>1020.01</t>
   </si>
   <si>
-    <t xml:space="preserve">    Bancos Nacionales</t>
+    <t xml:space="preserve">        Bancos Nacionales</t>
   </si>
   <si>
     <t>102.01</t>
@@ -73,7 +85,7 @@
     <t>1020.02</t>
   </si>
   <si>
-    <t xml:space="preserve">    Bancos Extranjeros</t>
+    <t xml:space="preserve">        Bancos Extranjeros</t>
   </si>
   <si>
     <t>102.02</t>
@@ -132,14 +144,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,16 +496,16 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>10000</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>10000</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -516,17 +525,17 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>10000</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="2">
         <v>10000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -545,23 +554,52 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>10000</v>
       </c>
-      <c r="G4" s="3">
-        <v>-10000</v>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10000</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-10000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
